--- a/biology/Zoologie/Aprostocetus/Aprostocetus.xlsx
+++ b/biology/Zoologie/Aprostocetus/Aprostocetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aprostocetus est un genre d'insectes hyménoptères de la famille des Eulophidae. Ce groupe très important (environ 670 espèces décrites) connait une distribution planétaire. Un intérêt croissant se manifeste à son égard à la suite de son utilisation de plus en plus répandue pour le contrôle biologique d'espèces hôtes.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces très répandues
-A. antiguensis - Caraïbes, Floride ;
+          <t>Espèces très répandues</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>A. antiguensis - Caraïbes, Floride ;
 Un parasite identifié dans les coccids (cochenilles ), Ceroplastes floridensis et le tischeriid (papillon de nuit), Tischeria heliopsisella ;
 A. asthenogmus - Paléarctique, Nord de l'Afrique, Indomalais, Seychelles, Caraïbes ;
 Un parasite de blattes cockroach du genre Periplaneta ;
@@ -576,9 +593,43 @@
 A. venustus - Holarctique ;
 Parasite de différentes cécidomyies et eurytomid guêpes du genre Bruchophagus ;
 A. zosimus - Holarctique, Nord de l'Afrique et Nouvelle-Zélande ;
-Parasite de nombreux insectes dont  Diptera, Lepidoptera et Hymenoptera. Parasité en retour par eupelmid Eupelmus allynii.
-Espèces paléarctiques
-A. aartseni - Grèce
+Parasite de nombreux insectes dont  Diptera, Lepidoptera et Hymenoptera. Parasité en retour par eupelmid Eupelmus allynii.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aprostocetus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aprostocetus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces paléarctiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>A. aartseni - Grèce
 A. acron - République tchèque
 A. aega - Paléarctique
 Un parasite de  cécidomyie : Dasineura glechomae
@@ -1004,9 +1055,43 @@
 A. xeuxes - Bretagne
 A. zerovae - Ukraine,  Russie Centrale
 A. zoilus - Paléarctique
-Hôte inconnu mais associé à Alopecurus pratensis, (Vulpin des prés).
-Espèces indomalaises
-A. ajmerensis - Inde (Rajasthan)
+Hôte inconnu mais associé à Alopecurus pratensis, (Vulpin des prés).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aprostocetus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aprostocetus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces indomalaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A. ajmerensis - Inde (Rajasthan)
 Parasite de cochenilles farineuses Coccidohystrix insolita
 A. annulicornis - Inde (Rajasthan)
 Parasite de cochenilles farineuses Coccidohystrix insolita
@@ -1052,9 +1137,43 @@
 A. versicolor - Sri Lanka
 Parasite de différents hymenopterans et papillons de nuit
 A. yoshimotoi - Inde (Uttar Pradesh)
-Hôte inconnu mais associé à Mangifera indica
-Espèces afro-tropicales
-A. aeruginosus - Seychelles
+Hôte inconnu mais associé à Mangifera indica</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aprostocetus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aprostocetus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces afro-tropicales</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>A. aeruginosus - Seychelles
 A. agnatus - Seychelles
 A. ambilobei - Madagascar
 A. ankaratrae - Madagascar
@@ -1110,9 +1229,43 @@
 A. trichionotus - Afrique de l'ouest
 Parasite de psyllid, punaise, Phytolyma lata
 A. ugandaensis - Uganda
-Parasite de stictococcid, cochenilles, Stictococcus gowdeyi
-Espèces néarctiques
-A. ajax - Nord des États-Unis
+Parasite de stictococcid, cochenilles, Stictococcus gowdeyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Aprostocetus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aprostocetus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces néarctiques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>A. ajax - Nord des États-Unis
 A. americanus
 A. animus - Mexique, Nouveau-Mexique
 A. anthophilus - Sud-Est du Canada, Nord-Est des États-Unis
@@ -1205,9 +1358,43 @@
 A. varicornis - Nord-Est des États-Unis
 Parasite de différents tortricid (papillons de nuit)
 A. verrucarii - États-Unis
-Parasite de différentes guêpe à galles du genre Neuroterus
-Espèces néotropicales
-A. acutipennis - Grenade, Saint-Vincent et les Grenadines
+Parasite de différentes guêpe à galles du genre Neuroterus</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Aprostocetus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aprostocetus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces néotropicales</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>A. acutipennis - Grenade, Saint-Vincent et les Grenadines
 A. arachnophagus - Argentine, Uruguay
 Un parasite de différentes araignées, araneid et theridiid, araignées.
 A. ashmeadi - Grenade
@@ -1258,9 +1445,43 @@
 A. xenocles - Chili
 Parasite de coccid cochenilles du genre Ceroplastes
 A. zemani - Amérique du sud
-Parasite de différentes coccid cochenilles.
-Espèces d'Australasie
-A. acomatus - Queensland
+Parasite de différentes coccid cochenilles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Aprostocetus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aprostocetus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces d'Australasie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>A. acomatus - Queensland
 A. acuminativentris - Queensland
 A. acuminatus - Queensland
 A. acutiventris - Queensland
@@ -1334,7 +1555,145 @@
 A. fuscus - Queensland
 A. gloriosus - Queensland
 A. glycon - Tasmanie
-A. gobius -</t>
+A. gobius - Queensland
+A. gregi - Queensland
+A. grotiusi - Queensland
+A. guttatus - Queensland
+A. haeckeli - Queensland
+A. handeli - Queensland
+A. hetaericos - Queensland
+A. hexguttativentris - Queensland
+A. hyalinus - Queensland
+A. imago - Nouvelle-Galles du Sud
+A. imperialis - Queensland
+A. indigenus - Queensland
+A. inghamensis - Queensland
+A. intentatus - Queensland
+A. io - Queensland
+A. ion - Queensland
+A. kelloggi - Queensland
+A. latithorax - Queensland
+A. lelaps - Ouest de l'Australie
+A. lenini - Queensland
+A. limbus - Tasmanie
+A. lineatus - Queensland
+A. longiclavus - Queensland
+A. longipennis - Queensland
+A. longiventris - Queensland
+A. lustris - Queensland
+A. mahometi - Queensland
+A. marginatus - Queensland
+A. margiscutellum - Queensland
+A. margiscutum - Queensland
+Parasite associé aux insectes fabriquant des galles sur Eucalyptus
+A. margiventris - Queensland
+A. margiventrosus - Queensland
+A. maximus - Queensland
+A. meridialis - Queensland
+A. meridianus - Victoria
+A. mesmeri - Queensland
+A. minutissimus - Queensland
+A. mirus - Queensland
+A. misericordia - Queensland
+A. montanus - Queensland
+A. monticola - Queensland
+A. morum - Queensland
+A. multifasciatus - Queensland
+A. necopinatus - Queensland
+A. neis - Tasmanie
+A. nelsonensis - Queensland
+A. nigriclava - Queensland
+A. nigrithorax - Queensland
+A. nomadis - Queensland
+A. novifasciatus - Queensland
+A. nubilipennis - Queensland
+A. nugatorius - Queensland
+A. nympha - Queensland
+A. obscurus - Queensland
+A. occultus - Queensland
+A. octoguttatus - Nouvelle-Galles du Sud
+A. pallidicaput - Queensland
+A. pallidiventris - Queensland
+A. parvulus - Queensland
+A. pax - Queensland
+A. perkinsi - Queensland
+A. perobscurus - Sud de l'Australie
+A. perpulcher - Queensland
+A. platoni - Queensland
+A. polychromus - Territoires du Nord
+A. pomosus - Queensland
+A. pontiac - Sud de l'Australie
+A. postscutellatus - Queensland
+A. proto - Tasmanie
+A. pulcher - Queensland
+A. pulchrinotatus - Queensland
+A. pullus - Queensland
+A. purpureicorpus - Queensland
+A. purpureithorax - Queensland
+A. purpureivarius - Queensland
+A. quadrifasciatus - Queensland
+A. quadriguttativentris - Queensland
+A. quadrimaculae - Queensland
+A. quadrimaculatus - Queensland
+A. queenslandensis - Queensland
+A. quinqnigrimaculae - Victoria
+Parasite associé aux insectes fabriquant des galles sur Eucalyptus
+A. rieki - Queensland
+A. rotundiventris - Queensland
+A. rufiscutellum - Queensland
+A. saintpierrei - Queensland
+Parasite de différentes  cécidomyie
+A. saltensis - Queensland
+A. salto - Queensland
+A. saltus - Queensland
+A. sannio - Queensland
+A. sannion - Queensland
+A. schilleri - Queensland
+A. secus - Queensland
+Parasite associé aux insectes fabriquant des galles sur Eucalyptus
+A. semiflaviceps - Queensland
+A. septemguttatus - Queensland
+A. sexguttatus - Queensland
+A. seymourensis - Queensland
+A. silvarum - Queensland
+A. silvensis - Queensland
+A. speciosissimus - Queensland
+A. speciosus - Queensland
+A. spissigradus - Queensland
+A. subfasciativentris - Queensland
+A. sublustris - Queensland
+A. sulcatus - Queensland
+A. sulfureiventris - Queensland
+Un parasite de différentes cécidomyies
+A. susurrus - Queensland
+A. tarsatus - Queensland
+A. teiae - Queensland
+Parasite de Lymantriinae (papillon de nuit) du genre Teia, aussi relevé sur Chrysomelidae Galeruca semipullata
+A. tenuis - Queensland
+A. thalesi - Queensland
+A. transversifasciatus - Nouvelle-Galles du Sud
+A. tricolor - Queensland
+Parasite associé aux insectes fabriquant des galles sur Eucalyptus
+A. trifasciatus - Queensland
+A. trimaculosus - Queensland
+A. unfasciativentris - Queensland
+A. valens - Tasmania
+A. varicolor - Queensland
+A. variegatus - Queensland
+A. verus - Victoria
+A. victoriensis - Victoria
+Parasite de différentes guêpes à galles
+A. viridicyaneus - Queensland
+A. viridiflavus - Queensland
+A. viridiscapus - Queensland
+A. viridithorax - Queensland
+A. vivatus - Queensland
+A. wallacei - Queensland
+A. walsinghami - Victoria
+A. xanther - Territoires du Nord, Queensland
+A. xanthicolor - Queensland
+A. xenares - Nouvelle-Galles du Sud, Tasmanie
+A. zaleucus - Tasmanie</t>
         </is>
       </c>
     </row>
